--- a/result/with_base/124/valence/s06_7.xlsx
+++ b/result/with_base/124/valence/s06_7.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7800000011920929</v>
+        <v>0.7327008843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41755.88671875</v>
+        <v>11291.87255859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8002272681756453</v>
+        <v>0.801339286215165</v>
       </c>
       <c r="E2" t="n">
-        <v>41754.48259943182</v>
+        <v>11288.16791130515</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8274999856948853</v>
+        <v>0.796875</v>
       </c>
       <c r="C3" t="n">
-        <v>40996.140625</v>
+        <v>10985.09228515625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8313636346296831</v>
+        <v>0.8493960079024819</v>
       </c>
       <c r="E3" t="n">
-        <v>40995.62180397727</v>
+        <v>10982.78090533088</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8924999833106995</v>
+        <v>0.8309151828289032</v>
       </c>
       <c r="C4" t="n">
-        <v>40231.55078125</v>
+        <v>10683.8427734375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9004545374350115</v>
+        <v>0.8851102941176471</v>
       </c>
       <c r="E4" t="n">
-        <v>40232.17720170454</v>
+        <v>10681.96053538603</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8499999940395355</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39484.158203125</v>
+        <v>10388.00439453125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9056818160143766</v>
+        <v>0.9127494762925541</v>
       </c>
       <c r="E5" t="n">
-        <v>39482.60014204546</v>
+        <v>10386.93307674632</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8643973171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38739.81640625</v>
+        <v>10100.18994140625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9322727268392389</v>
+        <v>0.9288996843730702</v>
       </c>
       <c r="E6" t="n">
-        <v>38739.15731534091</v>
+        <v>10098.97156479779</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C7" t="n">
-        <v>38006.986328125</v>
+        <v>9817.796875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.941931811246005</v>
+        <v>0.9422925430185655</v>
       </c>
       <c r="E7" t="n">
-        <v>38006.82208806818</v>
+        <v>9817.059340533087</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37287.380859375</v>
+        <v>9543.29833984375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9469318227334456</v>
+        <v>0.9478728981579051</v>
       </c>
       <c r="E8" t="n">
-        <v>37286.01953125</v>
+        <v>9541.889418658087</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C9" t="n">
-        <v>36576.5234375</v>
+        <v>9274.06884765625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9601136337627064</v>
+        <v>0.9583771018420949</v>
       </c>
       <c r="E9" t="n">
-        <v>36575.53480113636</v>
+        <v>9273.080997242647</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C10" t="n">
-        <v>35879.20703125</v>
+        <v>9011.46337890625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9559090841900219</v>
+        <v>0.9664522058823529</v>
       </c>
       <c r="E10" t="n">
-        <v>35877.55397727273</v>
+        <v>9010.627470128677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C11" t="n">
-        <v>35191.421875</v>
+        <v>8755.60400390625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9728409051895142</v>
+        <v>0.9624474784907173</v>
       </c>
       <c r="E11" t="n">
-        <v>35190.45738636364</v>
+        <v>8754.713407628677</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C12" t="n">
-        <v>34517.1484375</v>
+        <v>8505.6083984375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9644318168813532</v>
+        <v>0.9724264705882353</v>
       </c>
       <c r="E12" t="n">
-        <v>34515.75071022727</v>
+        <v>8505.034639246323</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.94921875</v>
       </c>
       <c r="C13" t="n">
-        <v>33853.32421875</v>
+        <v>8262.384765625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9746590906923468</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E13" t="n">
-        <v>33851.93501420454</v>
+        <v>8261.708352481617</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.9453125</v>
       </c>
       <c r="C14" t="n">
-        <v>33200.40234375</v>
+        <v>8025.185546875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9703409129923041</v>
+        <v>0.984375</v>
       </c>
       <c r="E14" t="n">
-        <v>33199.75142045454</v>
+        <v>8024.552389705882</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32559.404296875</v>
+        <v>7794.20751953125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E15" t="n">
-        <v>32558.70862926136</v>
+        <v>7793.551384420956</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31931.10546875</v>
+        <v>7569.2763671875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9712500084530223</v>
+        <v>0.9782037805108463</v>
       </c>
       <c r="E16" t="n">
-        <v>31929.79403409091</v>
+        <v>7568.580882352941</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.94921875</v>
       </c>
       <c r="C17" t="n">
-        <v>31311.89453125</v>
+        <v>7349.7685546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9877272790128534</v>
+        <v>0.9864101900773889</v>
       </c>
       <c r="E17" t="n">
-        <v>31311.20667613636</v>
+        <v>7349.28360523897</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30704.6435546875</v>
+        <v>7136.193603515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E18" t="n">
-        <v>30704.05681818182</v>
+        <v>7135.750459558823</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.95703125</v>
       </c>
       <c r="C19" t="n">
-        <v>30108.9765625</v>
+        <v>6928.229736328125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9846590974114158</v>
+        <v>0.9885110294117647</v>
       </c>
       <c r="E19" t="n">
-        <v>30107.94833096591</v>
+        <v>6927.865377987132</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29523.771484375</v>
+        <v>6725.7900390625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9856818318367004</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E20" t="n">
-        <v>29522.40891335227</v>
+        <v>6725.419548483456</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28948.8037109375</v>
+        <v>6529.026611328125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9830681898377158</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E21" t="n">
-        <v>28947.4375</v>
+        <v>6528.40421070772</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28383.55078125</v>
+        <v>6337.21142578125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9904545545578003</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E22" t="n">
-        <v>28382.83043323864</v>
+        <v>6336.525247012868</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C23" t="n">
-        <v>27829.5009765625</v>
+        <v>6150.591552734375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9892045530405912</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E23" t="n">
-        <v>27828.689453125</v>
+        <v>6149.831198299632</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27285.1142578125</v>
+        <v>5968.573974609375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E24" t="n">
-        <v>27284.50248579546</v>
+        <v>5968.06405101103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26751.1845703125</v>
+        <v>5791.573486328125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E25" t="n">
-        <v>26750.37766335227</v>
+        <v>5791.193244485294</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26226.3701171875</v>
+        <v>5619.523193359375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E26" t="n">
-        <v>26225.91796875</v>
+        <v>5619.117963005515</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.945000022649765</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25712.80859375</v>
+        <v>5451.951416015625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9821591052142057</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E27" t="n">
-        <v>25711.42365056818</v>
+        <v>5451.696892233456</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C28" t="n">
-        <v>25206.6455078125</v>
+        <v>5289.27197265625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E28" t="n">
-        <v>25205.99946732954</v>
+        <v>5288.79696116728</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24711.0791015625</v>
+        <v>5130.7470703125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9890909194946289</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E29" t="n">
-        <v>24710.13813920454</v>
+        <v>5130.36368336397</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24223.8271484375</v>
+        <v>4976.618896484375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E30" t="n">
-        <v>24223.39825994318</v>
+        <v>4976.256376378677</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C31" t="n">
-        <v>23746.3779296875</v>
+        <v>4826.769287109375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E31" t="n">
-        <v>23745.70472301136</v>
+        <v>4826.360811121323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23277.1376953125</v>
+        <v>4680.956787109375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E32" t="n">
-        <v>23276.79190340909</v>
+        <v>4680.571490119485</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9375</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22817.5615234375</v>
+        <v>4539.057373046875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9904545545578003</v>
+        <v>0.9962578766486224</v>
       </c>
       <c r="E33" t="n">
-        <v>22816.66495028409</v>
+        <v>4538.792250689338</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22365.4912109375</v>
+        <v>4401.28076171875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E34" t="n">
-        <v>22364.88636363636</v>
+        <v>4400.939654181985</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9352678656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21922.541015625</v>
+        <v>4267.385986328125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E35" t="n">
-        <v>21921.61345880682</v>
+        <v>4266.908547794118</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94921875</v>
       </c>
       <c r="C36" t="n">
-        <v>21487.03125</v>
+        <v>4136.833984375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E36" t="n">
-        <v>21486.46040482954</v>
+        <v>4136.533346737132</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C37" t="n">
-        <v>21061.0048828125</v>
+        <v>4010.028930664062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E37" t="n">
-        <v>21059.59357244318</v>
+        <v>4009.808579388787</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.94921875</v>
       </c>
       <c r="C38" t="n">
-        <v>20640.939453125</v>
+        <v>3886.787963867188</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9986213235294118</v>
       </c>
       <c r="E38" t="n">
-        <v>20640.45632102273</v>
+        <v>3886.617244944853</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>20229.8505859375</v>
+        <v>3767.088012695312</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9980961119427401</v>
       </c>
       <c r="E39" t="n">
-        <v>20229.23703835227</v>
+        <v>3766.867130055147</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C40" t="n">
-        <v>19826.5400390625</v>
+        <v>3650.777221679688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E40" t="n">
-        <v>19825.67844460227</v>
+        <v>3650.463177849265</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9151785671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19430.330078125</v>
+        <v>3537.747192382812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E41" t="n">
-        <v>19429.62482244318</v>
+        <v>3537.320901309743</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C42" t="n">
-        <v>19041.884765625</v>
+        <v>3427.747924804688</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E42" t="n">
-        <v>19041.00799005682</v>
+        <v>3427.353328929228</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18660.6875</v>
+        <v>3320.799682617188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E43" t="n">
-        <v>18659.69975142046</v>
+        <v>3320.497242647059</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18286.138671875</v>
+        <v>3217.086303710938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E44" t="n">
-        <v>18285.43892045454</v>
+        <v>3216.676987591912</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17919.0654296875</v>
+        <v>3116.072509765625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E45" t="n">
-        <v>17918.19513494318</v>
+        <v>3115.780029296875</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C46" t="n">
-        <v>17558.4345703125</v>
+        <v>3017.96435546875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E46" t="n">
-        <v>17557.84925426136</v>
+        <v>3017.744686351103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C47" t="n">
-        <v>17204.7236328125</v>
+        <v>2922.791625976562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9934348744504592</v>
       </c>
       <c r="E47" t="n">
-        <v>17204.23757102273</v>
+        <v>2922.504265280331</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16857.759765625</v>
+        <v>2830.179077148438</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E48" t="n">
-        <v>16857.29918323864</v>
+        <v>2829.979621438419</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16517.4970703125</v>
+        <v>2740.311279296875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E49" t="n">
-        <v>16516.89683948864</v>
+        <v>2740.132625804228</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C50" t="n">
-        <v>16183.50927734375</v>
+        <v>2653.011108398438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E50" t="n">
-        <v>16182.89639559659</v>
+        <v>2652.83442957261</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,905 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C51" t="n">
-        <v>15855.77392578125</v>
+        <v>2568.20654296875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9976365531192106</v>
       </c>
       <c r="E51" t="n">
-        <v>15855.15065696023</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15534.1435546875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15533.55610795455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15218.82666015625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15218.05424360795</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14909.1015625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14908.51811079545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14605.20703125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9988636374473572</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14604.82404119318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14307.47705078125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14306.87535511364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>14014.8623046875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14014.53542258523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13728.23046875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13727.74156605114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13446.853515625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13446.38689630682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13170.78271484375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13170.36772017045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12900.0546875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12899.611328125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12634.48291015625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12633.98934659091</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12373.89208984375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12373.42498224432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12118.22705078125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12117.81782670455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11867.52294921875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11867.0869140625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11621.5146484375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11621.15092329545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11380.44140625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11379.90553977273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11143.669921875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11143.27530184659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10911.36376953125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10911.17693536932</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10683.7890625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10683.53275923295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10460.66357421875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10460.27459161932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10241.70849609375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10241.30877130682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10027.021484375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10026.55992542614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9816.20361328125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9815.95028409091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9609.716796875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9609.4248046875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9407.13427734375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9406.869406960228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9208.42138671875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9208.218394886364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C78" t="n">
-        <v>9013.68896484375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9013.43448153409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8822.71142578125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8822.4130859375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8635.35009765625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8635.131214488636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8451.64208984375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8451.479137073864</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3378378378378378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3918918918918919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.006024096385542169</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.006024096385542169</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9459459459459459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02409638554216868</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9459459459459459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02409638554216868</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9594594594594594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.06626506024096386</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9594594594594594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.06626506024096386</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.972972972972973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.0783132530120482</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.972972972972973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.0783132530120482</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9864864864864865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1927710843373494</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9864864864864865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1927710843373494</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.992429176164116</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7951807228915663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8132530120481928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8313253012048193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8373493975903614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8614457831325302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9216867469879518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9216867469879518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9337349397590361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.04054054054054054</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9337349397590361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.04054054054054054</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9759036144578314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9759036144578314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9939759036144579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9939759036144579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9923884728101595</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>2568.054946001838</v>
       </c>
     </row>
   </sheetData>
